--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bananatree\Documents\YT_Tutorials\01_Projects\103_Read_Multiple_Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bananatree\Documents\YT_Tutorials\01_Projects\103_Read_Multiple_Sheets\YOUTUBE_UPLOAD_FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A826C02-3C40-4E68-946F-E83A606117CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C4851A-A97C-401E-99DD-1D08A323ED77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4290" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4290" uniqueCount="48">
   <si>
     <t>Segment</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>France</t>
+  </si>
+  <si>
+    <t>India</t>
   </si>
 </sst>
 </file>
@@ -34666,7 +34669,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -34714,7 +34717,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -34762,7 +34765,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -34810,7 +34813,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -34858,7 +34861,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -34906,7 +34909,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -34954,7 +34957,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -35002,7 +35005,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -35050,7 +35053,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -35098,7 +35101,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -35146,7 +35149,7 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -35194,7 +35197,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
@@ -35242,7 +35245,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
@@ -35290,7 +35293,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -35338,7 +35341,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -35386,7 +35389,7 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -35434,7 +35437,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -35482,7 +35485,7 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -35530,7 +35533,7 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
@@ -35578,7 +35581,7 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
@@ -35626,7 +35629,7 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
@@ -35674,7 +35677,7 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
         <v>26</v>
@@ -35722,7 +35725,7 @@
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -35770,7 +35773,7 @@
         <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
@@ -35818,7 +35821,7 @@
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
         <v>23</v>
@@ -35866,7 +35869,7 @@
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
         <v>23</v>
@@ -35914,7 +35917,7 @@
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
         <v>24</v>
@@ -35962,7 +35965,7 @@
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
         <v>26</v>
@@ -36010,7 +36013,7 @@
         <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
@@ -36058,7 +36061,7 @@
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -36106,7 +36109,7 @@
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
@@ -36154,7 +36157,7 @@
         <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
@@ -36202,7 +36205,7 @@
         <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
@@ -36250,7 +36253,7 @@
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
         <v>23</v>
@@ -36298,7 +36301,7 @@
         <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
         <v>23</v>
@@ -36346,7 +36349,7 @@
         <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
         <v>23</v>
@@ -36394,7 +36397,7 @@
         <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s">
         <v>23</v>
@@ -36442,7 +36445,7 @@
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
         <v>24</v>
@@ -36490,7 +36493,7 @@
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D41" t="s">
         <v>25</v>
@@ -36538,7 +36541,7 @@
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D42" t="s">
         <v>25</v>
@@ -36586,7 +36589,7 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
         <v>21</v>
@@ -36634,7 +36637,7 @@
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
         <v>21</v>
@@ -36682,7 +36685,7 @@
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D45" t="s">
         <v>21</v>
@@ -36730,7 +36733,7 @@
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D46" t="s">
         <v>22</v>
@@ -36778,7 +36781,7 @@
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
         <v>23</v>
@@ -36826,7 +36829,7 @@
         <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D48" t="s">
         <v>23</v>
@@ -36874,7 +36877,7 @@
         <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
@@ -36922,7 +36925,7 @@
         <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
@@ -36970,7 +36973,7 @@
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D51" t="s">
         <v>23</v>
@@ -37018,7 +37021,7 @@
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D52" t="s">
         <v>24</v>
@@ -37066,7 +37069,7 @@
         <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D53" t="s">
         <v>24</v>
@@ -37114,7 +37117,7 @@
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D54" t="s">
         <v>24</v>
@@ -37162,7 +37165,7 @@
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D55" t="s">
         <v>25</v>
@@ -37210,7 +37213,7 @@
         <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D56" t="s">
         <v>23</v>
@@ -37258,7 +37261,7 @@
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D57" t="s">
         <v>22</v>
@@ -37306,7 +37309,7 @@
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D58" t="s">
         <v>23</v>
@@ -37354,7 +37357,7 @@
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D59" t="s">
         <v>24</v>
@@ -37402,7 +37405,7 @@
         <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D60" t="s">
         <v>24</v>
@@ -37450,7 +37453,7 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D61" t="s">
         <v>24</v>
@@ -37498,7 +37501,7 @@
         <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D62" t="s">
         <v>25</v>
@@ -37546,7 +37549,7 @@
         <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D63" t="s">
         <v>26</v>
@@ -37594,7 +37597,7 @@
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D64" t="s">
         <v>26</v>
@@ -37642,7 +37645,7 @@
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D65" t="s">
         <v>26</v>
@@ -37690,7 +37693,7 @@
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D66" t="s">
         <v>22</v>
@@ -37738,7 +37741,7 @@
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D67" t="s">
         <v>23</v>
@@ -37786,7 +37789,7 @@
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D68" t="s">
         <v>22</v>
@@ -37834,7 +37837,7 @@
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D69" t="s">
         <v>23</v>
@@ -37882,7 +37885,7 @@
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D70" t="s">
         <v>25</v>
@@ -37930,7 +37933,7 @@
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D71" t="s">
         <v>21</v>
@@ -37978,7 +37981,7 @@
         <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D72" t="s">
         <v>21</v>
@@ -38026,7 +38029,7 @@
         <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D73" t="s">
         <v>22</v>
@@ -38074,7 +38077,7 @@
         <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D74" t="s">
         <v>22</v>
@@ -38122,7 +38125,7 @@
         <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D75" t="s">
         <v>23</v>
@@ -38170,7 +38173,7 @@
         <v>18</v>
       </c>
       <c r="C76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D76" t="s">
         <v>23</v>
@@ -38218,7 +38221,7 @@
         <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D77" t="s">
         <v>23</v>
@@ -38266,7 +38269,7 @@
         <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D78" t="s">
         <v>24</v>
@@ -38314,7 +38317,7 @@
         <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D79" t="s">
         <v>24</v>
@@ -38362,7 +38365,7 @@
         <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D80" t="s">
         <v>25</v>
@@ -38410,7 +38413,7 @@
         <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D81" t="s">
         <v>26</v>
@@ -38458,7 +38461,7 @@
         <v>18</v>
       </c>
       <c r="C82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D82" t="s">
         <v>21</v>
@@ -38506,7 +38509,7 @@
         <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D83" t="s">
         <v>22</v>
@@ -38554,7 +38557,7 @@
         <v>19</v>
       </c>
       <c r="C84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D84" t="s">
         <v>22</v>
@@ -38602,7 +38605,7 @@
         <v>19</v>
       </c>
       <c r="C85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D85" t="s">
         <v>24</v>
@@ -38650,7 +38653,7 @@
         <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D86" t="s">
         <v>25</v>
@@ -38698,7 +38701,7 @@
         <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D87" t="s">
         <v>25</v>
@@ -38746,7 +38749,7 @@
         <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D88" t="s">
         <v>22</v>
@@ -38794,7 +38797,7 @@
         <v>19</v>
       </c>
       <c r="C89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D89" t="s">
         <v>22</v>
@@ -38842,7 +38845,7 @@
         <v>17</v>
       </c>
       <c r="C90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D90" t="s">
         <v>22</v>
@@ -38890,7 +38893,7 @@
         <v>18</v>
       </c>
       <c r="C91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D91" t="s">
         <v>23</v>
@@ -38938,7 +38941,7 @@
         <v>19</v>
       </c>
       <c r="C92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D92" t="s">
         <v>23</v>
@@ -38986,7 +38989,7 @@
         <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D93" t="s">
         <v>25</v>
@@ -39034,7 +39037,7 @@
         <v>18</v>
       </c>
       <c r="C94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D94" t="s">
         <v>25</v>
@@ -39082,7 +39085,7 @@
         <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D95" t="s">
         <v>24</v>
@@ -39130,7 +39133,7 @@
         <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D96" t="s">
         <v>25</v>
@@ -39178,7 +39181,7 @@
         <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D97" t="s">
         <v>26</v>
@@ -39226,7 +39229,7 @@
         <v>17</v>
       </c>
       <c r="C98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D98" t="s">
         <v>21</v>
@@ -39274,7 +39277,7 @@
         <v>18</v>
       </c>
       <c r="C99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D99" t="s">
         <v>22</v>
@@ -39322,7 +39325,7 @@
         <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D100" t="s">
         <v>23</v>
@@ -39370,7 +39373,7 @@
         <v>18</v>
       </c>
       <c r="C101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D101" t="s">
         <v>23</v>
@@ -39418,7 +39421,7 @@
         <v>15</v>
       </c>
       <c r="C102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D102" t="s">
         <v>24</v>
@@ -39466,7 +39469,7 @@
         <v>19</v>
       </c>
       <c r="C103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D103" t="s">
         <v>24</v>
@@ -39514,7 +39517,7 @@
         <v>18</v>
       </c>
       <c r="C104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D104" t="s">
         <v>25</v>
@@ -39562,7 +39565,7 @@
         <v>18</v>
       </c>
       <c r="C105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D105" t="s">
         <v>26</v>
@@ -39610,7 +39613,7 @@
         <v>19</v>
       </c>
       <c r="C106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D106" t="s">
         <v>26</v>
@@ -39658,7 +39661,7 @@
         <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D107" t="s">
         <v>21</v>
@@ -39706,7 +39709,7 @@
         <v>15</v>
       </c>
       <c r="C108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D108" t="s">
         <v>23</v>
@@ -39754,7 +39757,7 @@
         <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D109" t="s">
         <v>23</v>
@@ -39802,7 +39805,7 @@
         <v>17</v>
       </c>
       <c r="C110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D110" t="s">
         <v>21</v>
@@ -39850,7 +39853,7 @@
         <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D111" t="s">
         <v>23</v>
@@ -39898,7 +39901,7 @@
         <v>17</v>
       </c>
       <c r="C112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D112" t="s">
         <v>23</v>
@@ -39946,7 +39949,7 @@
         <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D113" t="s">
         <v>24</v>
@@ -39994,7 +39997,7 @@
         <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D114" t="s">
         <v>25</v>
@@ -40042,7 +40045,7 @@
         <v>17</v>
       </c>
       <c r="C115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D115" t="s">
         <v>26</v>
@@ -40090,7 +40093,7 @@
         <v>19</v>
       </c>
       <c r="C116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D116" t="s">
         <v>22</v>
@@ -40138,7 +40141,7 @@
         <v>19</v>
       </c>
       <c r="C117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D117" t="s">
         <v>22</v>
@@ -40186,7 +40189,7 @@
         <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D118" t="s">
         <v>23</v>
@@ -40234,7 +40237,7 @@
         <v>18</v>
       </c>
       <c r="C119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D119" t="s">
         <v>25</v>
@@ -40282,7 +40285,7 @@
         <v>15</v>
       </c>
       <c r="C120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D120" t="s">
         <v>26</v>
@@ -40330,7 +40333,7 @@
         <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D121" t="s">
         <v>21</v>
@@ -40378,7 +40381,7 @@
         <v>15</v>
       </c>
       <c r="C122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D122" t="s">
         <v>25</v>
@@ -40426,7 +40429,7 @@
         <v>15</v>
       </c>
       <c r="C123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D123" t="s">
         <v>21</v>
@@ -40474,7 +40477,7 @@
         <v>15</v>
       </c>
       <c r="C124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D124" t="s">
         <v>23</v>
@@ -40522,7 +40525,7 @@
         <v>18</v>
       </c>
       <c r="C125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D125" t="s">
         <v>24</v>
@@ -40570,7 +40573,7 @@
         <v>15</v>
       </c>
       <c r="C126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D126" t="s">
         <v>24</v>
@@ -40618,7 +40621,7 @@
         <v>15</v>
       </c>
       <c r="C127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D127" t="s">
         <v>26</v>
@@ -40666,7 +40669,7 @@
         <v>15</v>
       </c>
       <c r="C128" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D128" t="s">
         <v>22</v>
@@ -40714,7 +40717,7 @@
         <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D129" t="s">
         <v>23</v>
@@ -40762,7 +40765,7 @@
         <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D130" t="s">
         <v>26</v>
@@ -40810,7 +40813,7 @@
         <v>17</v>
       </c>
       <c r="C131" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D131" t="s">
         <v>21</v>
@@ -40858,7 +40861,7 @@
         <v>15</v>
       </c>
       <c r="C132" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D132" t="s">
         <v>23</v>
@@ -40906,7 +40909,7 @@
         <v>15</v>
       </c>
       <c r="C133" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D133" t="s">
         <v>23</v>
@@ -40954,7 +40957,7 @@
         <v>15</v>
       </c>
       <c r="C134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D134" t="s">
         <v>25</v>
@@ -41002,7 +41005,7 @@
         <v>16</v>
       </c>
       <c r="C135" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D135" t="s">
         <v>26</v>
@@ -41050,7 +41053,7 @@
         <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D136" t="s">
         <v>26</v>
@@ -41098,7 +41101,7 @@
         <v>17</v>
       </c>
       <c r="C137" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D137" t="s">
         <v>21</v>
@@ -41146,7 +41149,7 @@
         <v>15</v>
       </c>
       <c r="C138" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D138" t="s">
         <v>23</v>
@@ -41194,7 +41197,7 @@
         <v>18</v>
       </c>
       <c r="C139" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D139" t="s">
         <v>24</v>
@@ -41242,7 +41245,7 @@
         <v>17</v>
       </c>
       <c r="C140" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D140" t="s">
         <v>24</v>
@@ -41290,7 +41293,7 @@
         <v>15</v>
       </c>
       <c r="C141" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D141" t="s">
         <v>25</v>
@@ -41338,7 +41341,7 @@
         <v>19</v>
       </c>
       <c r="C142" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D142" t="s">
         <v>26</v>
